--- a/lab5_382_data.xlsx
+++ b/lab5_382_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="130">
   <si>
     <t>0x039E</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>"1" falling edge time0</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>AVG 1</t>
+  </si>
+  <si>
+    <t>AVG 0</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -428,12 +437,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,6 +4659,97 @@
       </c>
       <c r="AR38" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>(C4+C6+C9+C10+C13+C15+C16+C19+C20+C22+C25+C27+C29+C31+C32+C34)/16</f>
+        <v>511.3125</v>
+      </c>
+      <c r="D40">
+        <f>(H4+H6+H9+H10+H13+H15+H16+H19+H20+H22+H25+H27+H29+H31+H32+H34)/16</f>
+        <v>656.8125</v>
+      </c>
+      <c r="E40">
+        <f>(M4+M6+M9+M10+M13+M15+M16+M19+M20+M22+M25+M27+M29+M31+M32+M34)/16</f>
+        <v>596.625</v>
+      </c>
+      <c r="F40">
+        <f>(R4+R6+R9+R10+R13+R15+R16+R19+R20+R22+R25+R27+R29+R31+R32+R34)/16</f>
+        <v>665.75</v>
+      </c>
+      <c r="G40">
+        <f>(W4+W6+W9+W10+W13+W15+W16+W19+W20+W22+W25+W27+W29+W31+W32+W34)/16</f>
+        <v>734.375</v>
+      </c>
+      <c r="H40">
+        <f>(AG4+AG6+AG9+AG10+AG13+AG15+AG16+AG19+AG20+AG22+AG25+AG27+AG29+AG31+AG32+AG34)/16</f>
+        <v>597.5625</v>
+      </c>
+      <c r="I40">
+        <f>(AL4+AL6+AL9+AL10+AL13+AL15+AL16+AL19+AL20+AL22+AL25+AL27+AL29+AL31+AL32+AL34)/16</f>
+        <v>734.5625</v>
+      </c>
+      <c r="J40">
+        <f>(AQ4+AQ6+AQ9+AQ10+AQ13+AQ15+AQ16+AQ19+AQ20+AQ22+AQ25+AQ27+AQ29+AQ31+AQ32+AQ34)/16</f>
+        <v>662.5</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M40" s="1">
+        <f>(C40+D40+E40+F40+G40+H40+I40+J40)/8</f>
+        <v>644.9375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f>(C35+C33+C30+C28+C26+C24+C23+C21+C18+C17+C14+C12+C11+C8+C7+C5)/16</f>
+        <v>1627.75</v>
+      </c>
+      <c r="D41">
+        <f>(H35+H33+H30+H28+H26+H24+H23+H21+H18+H17+H14+H12+H11+H8+H7+H5)/16</f>
+        <v>1487.75</v>
+      </c>
+      <c r="E41">
+        <f>(M35+M33+M30+M28+M26+M24+M23+M21+M18+M17+M14+M12+M11+M8+M7+M5)/16</f>
+        <v>1576.4375</v>
+      </c>
+      <c r="F41">
+        <f>(R35+R33+R30+R28+R26+R24+R23+R21+R18+R17+R14+R12+R11+R8+R7+R5)/16</f>
+        <v>1505.625</v>
+      </c>
+      <c r="G41">
+        <f>(W35+W33+W30+W28+W26+W24+W23+W21+W18+W17+W14+W12+W11+W8+W7+W5)/16</f>
+        <v>1424.625</v>
+      </c>
+      <c r="H41">
+        <f>(AG35+AG33+AG30+AG28+AG26+AG24+AG23+AG21+AG18+AG17+AG14+AG12+AG11+AG8+AG7+AG5)/16</f>
+        <v>1564.6875</v>
+      </c>
+      <c r="I41">
+        <f>(AL35+AL33+AL30+AL28+AL26+AL24+AL23+AL21+AL18+AL17+AL14+AL12+AL11+AL8+AL7+AL5)/16</f>
+        <v>1436.25</v>
+      </c>
+      <c r="J41">
+        <f>(AQ35+AQ33+AQ30+AQ28+AQ26+AQ24+AQ23+AQ21+AQ18+AQ17+AQ14+AQ12+AQ11+AQ8+AQ7+AQ5)/16</f>
+        <v>1497.3125</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M41" s="1">
+        <f>(C41+D41+E41+F41+G41+H41+I41+J41)/8</f>
+        <v>1515.0546875</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
